--- a/InTheInterestOfTime/results.xlsx
+++ b/InTheInterestOfTime/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="37840" windowHeight="19740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Matrix Dimension</t>
-  </si>
-  <si>
-    <t>CPU (Time)</t>
   </si>
   <si>
     <t>GPU (Tile = 10)</t>
@@ -58,6 +55,12 @@
   </si>
   <si>
     <t>Grant McGovern</t>
+  </si>
+  <si>
+    <t>CPU (Time in Seconds)</t>
+  </si>
+  <si>
+    <t>(Placed in 2 separate graphs for easier viewing as speedup scaled)</t>
   </si>
 </sst>
 </file>
@@ -189,7 +192,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -209,8 +212,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -243,14 +252,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -260,6 +272,9 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -269,6 +284,9 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -324,7 +342,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>T = 10</c:v>
+            <c:v>T 10</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -383,7 +401,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>T = 20</c:v>
+            <c:v>T 20</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -442,7 +460,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>T = 30</c:v>
+            <c:v>T 30</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -507,11 +525,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2124350120"/>
-        <c:axId val="2119239144"/>
+        <c:axId val="-2128363224"/>
+        <c:axId val="2134653336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2124350120"/>
+        <c:axId val="-2128363224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -521,7 +539,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119239144"/>
+        <c:crossAx val="2134653336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -529,7 +547,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119239144"/>
+        <c:axId val="2134653336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -559,7 +577,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124350120"/>
+        <c:crossAx val="-2128363224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -638,7 +656,7 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>T = 40</c:v>
+            <c:v>T 40</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -697,7 +715,7 @@
           <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>T = 50</c:v>
+            <c:v>T 50</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -762,11 +780,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2119079448"/>
-        <c:axId val="2124669096"/>
+        <c:axId val="-2128223672"/>
+        <c:axId val="-2128220696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2119079448"/>
+        <c:axId val="-2128223672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,7 +794,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124669096"/>
+        <c:crossAx val="-2128220696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -784,7 +802,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2124669096"/>
+        <c:axId val="-2128220696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -814,7 +832,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119079448"/>
+        <c:crossAx val="-2128223672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -851,13 +869,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -881,13 +899,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>641350</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1234,16 +1252,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" customWidth="1"/>
     <col min="5" max="5" width="17.83203125" customWidth="1"/>
@@ -1256,51 +1274,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="16"/>
+      <c r="A1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="17"/>
     </row>
     <row r="2" spans="1:12" ht="34" customHeight="1">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="I5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="K5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="13" t="s">
+      <c r="L5" s="13" t="s">
         <v>10</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="20">
@@ -1518,9 +1536,17 @@
         <v>1886971.419117647</v>
       </c>
     </row>
+    <row r="12" spans="1:12">
+      <c r="E12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E12:G12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
